--- a/DATA_goal/Junction_Flooding_429.xlsx
+++ b/DATA_goal/Junction_Flooding_429.xlsx
@@ -450,7 +450,7 @@
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -465,7 +465,7 @@
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
@@ -967,103 +967,103 @@
         <v>44781.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.16</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_429.xlsx
+++ b/DATA_goal/Junction_Flooding_429.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.71527777778</v>
+        <v>45110.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>10.232</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>6.988</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.382</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>22.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>16.551</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>7.711</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>22.993</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>12.747</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>5.033</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>6.872</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>8.682</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>9.968</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>2.214</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>11.091</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>7.662</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>2.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.071</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>118.497</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>22.775</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>7.635</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>14.429</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>7.663</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>12.965</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>6.744</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>6.372</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>7.242</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>9.571</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>2.474</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>20.428</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>3.858</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>9.544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.72222222222</v>
+        <v>45110.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>17.552</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>12.927</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.796</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>38.574</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>30.767</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>13.626</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>51.053</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>21.477</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>9.445</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>13.487</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>15.368</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>16.636</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>4.204</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>13.911</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>19.536</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>12.065</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.799</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>204.407</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>38.856</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>12.84</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>25.771</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>13.541</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>2.234</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>25.96</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>11.342</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>10.227</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>11.962</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>16.278</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.101</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>46.553</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>7.039</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>16.053</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.72916666666</v>
+        <v>45110.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>13.765</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>10.199</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.215</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>30.269</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>24.265</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>10.699</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>43.741</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>16.826</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>7.486</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>10.652</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>12.093</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>13.038</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>3.315</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>10.903</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>15.357</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>9.42</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.869</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>158.636</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>30.536</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>10.064</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>20.298</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>10.646</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>1.683</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>21.447</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>7.994</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>9.365</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>12.77</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.708</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>39.873</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>5.541</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>12.582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.73611111111</v>
+        <v>45110.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.63</v>
+        <v>23.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.17</v>
+        <v>17.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.91</v>
+        <v>1.33</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.57</v>
+        <v>51.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.05</v>
+        <v>41.75</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.65</v>
+        <v>18.31</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.47</v>
+        <v>70.51000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.03</v>
+        <v>28.46</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.96</v>
+        <v>12.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.14</v>
+        <v>18.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.26</v>
+        <v>20.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1</v>
+        <v>21.88</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.23</v>
+        <v>5.77</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.61</v>
+        <v>18.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.53</v>
+        <v>26.16</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.27</v>
+        <v>15.56</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.79</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.73</v>
+        <v>273.09</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.24</v>
+        <v>51.49</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.13</v>
+        <v>17</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.44</v>
+        <v>34.59</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.4</v>
+        <v>18.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.6</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.48</v>
+        <v>34.79</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>15.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.12</v>
+        <v>13.33</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.54</v>
+        <v>15.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.93</v>
+        <v>21.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>1.64</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.36</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.16</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.17</v>
+        <v>21.26</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_429.xlsx
+++ b/DATA_goal/Junction_Flooding_429.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45110.50694444445</v>
+        <v>44781.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.232</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.988</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.382</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>22.493</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>16.551</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.711</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22.993</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.747</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.033</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.872</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.682</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.968</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.214</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.271000000000001</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.091</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.662</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.404</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.071</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>118.497</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>22.775</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.635</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.429</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.663</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.148</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.965</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.744</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.372</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.242</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.571</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.474</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>20.428</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.858</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45110.51388888889</v>
+        <v>44781.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.552</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.927</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.796</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>38.574</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>30.767</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.626</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>51.053</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.477</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.445</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.487</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.368</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.636</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.204</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.911</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.536</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.065</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.799</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>204.407</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>38.856</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.84</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.771</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.541</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.234</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.96</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.342</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.227</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.962</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.278</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.101</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>46.553</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.039</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45110.52083333334</v>
+        <v>44781.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.765</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.199</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.215</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.269</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.265</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.699</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>43.741</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.826</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.486</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.652</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.093</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.038</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.315</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.903</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.357</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.42</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.869</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5610000000000001</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>158.636</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>30.536</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.064</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.298</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.646</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.683</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.447</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.888999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.994</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.365</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.77</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.708</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>39.873</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.541</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45110.52777777778</v>
+        <v>44781.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.41</v>
+        <v>0.63</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.49</v>
+        <v>1.166</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.33</v>
+        <v>0.914</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>51.19</v>
+        <v>1.572</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.75</v>
+        <v>2.049</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.31</v>
+        <v>0.647</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>70.51000000000001</v>
+        <v>0.472</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.46</v>
+        <v>1.032</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.76</v>
+        <v>0.959</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.61</v>
+        <v>0.141</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.51</v>
+        <v>0.258</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.88</v>
+        <v>0.997</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.77</v>
+        <v>0.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.42</v>
+        <v>0.608</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.16</v>
+        <v>1.534</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.56</v>
+        <v>0.267</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.393</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.286</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>273.09</v>
+        <v>0.734</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>51.49</v>
+        <v>1.239</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17</v>
+        <v>1.134</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>34.59</v>
+        <v>0.444</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.16</v>
+        <v>0.399</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.6</v>
+        <v>0.246</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.79</v>
+        <v>0.476</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.02</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.33</v>
+        <v>1.123</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.65</v>
+        <v>0.54</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.6</v>
+        <v>1.928</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>1.645</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>64.01000000000001</v>
+        <v>1.357</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>2.156</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.26</v>
+        <v>0.863</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.74304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.17</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_429.xlsx
+++ b/DATA_goal/Junction_Flooding_429.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.71527777778</v>
+        <v>45110.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>10.232</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>6.988</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.382</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>22.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>16.551</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>7.711</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>22.993</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>12.747</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>5.033</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>6.872</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>8.682</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>9.968</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>2.214</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>11.091</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>7.662</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>2.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.071</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>118.497</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>22.775</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>7.635</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>14.429</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>7.663</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>12.965</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>6.744</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>6.372</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>7.242</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>9.571</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>2.474</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>20.428</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>3.858</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>9.544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.72222222222</v>
+        <v>45110.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>17.552</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>12.927</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.796</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>38.574</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>30.767</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>13.626</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>51.053</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>21.477</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>9.445</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>13.487</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>15.368</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>16.636</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>4.204</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>13.911</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>19.536</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>12.065</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.799</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>204.407</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>38.856</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>12.84</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>25.771</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>13.541</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>2.234</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>25.96</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>11.342</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>10.227</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>11.962</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>16.278</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.101</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>46.553</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>7.039</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>16.053</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.72916666666</v>
+        <v>45110.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>13.765</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>10.199</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.215</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>30.269</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>24.265</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>10.699</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>43.741</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>16.826</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>7.486</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>10.652</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>12.093</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>13.038</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>3.315</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>10.903</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>15.357</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>9.42</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.869</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>158.636</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>30.536</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>10.064</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>20.298</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>10.646</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>1.683</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>21.447</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>7.994</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>9.365</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>12.77</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.708</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>39.873</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>5.541</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>12.582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.73611111111</v>
+        <v>45110.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.63</v>
+        <v>23.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.166</v>
+        <v>17.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.914</v>
+        <v>1.33</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.572</v>
+        <v>51.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.049</v>
+        <v>41.75</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.647</v>
+        <v>18.31</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.472</v>
+        <v>70.51000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.032</v>
+        <v>28.46</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.959</v>
+        <v>12.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.141</v>
+        <v>18.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.258</v>
+        <v>20.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.997</v>
+        <v>21.88</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.23</v>
+        <v>5.77</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.608</v>
+        <v>18.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.534</v>
+        <v>26.16</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.267</v>
+        <v>15.56</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.393</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.286</v>
+        <v>0.79</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.734</v>
+        <v>273.09</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.239</v>
+        <v>51.49</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.134</v>
+        <v>17</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.444</v>
+        <v>34.59</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.399</v>
+        <v>18.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.246</v>
+        <v>2.6</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.476</v>
+        <v>34.79</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.6929999999999999</v>
+        <v>15.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.123</v>
+        <v>13.33</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.54</v>
+        <v>15.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.928</v>
+        <v>21.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>1.645</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.357</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.156</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.863</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.17</v>
+        <v>21.26</v>
       </c>
     </row>
   </sheetData>
